--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H2">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N2">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q2">
-        <v>0.005944817075222221</v>
+        <v>0.01865058087788889</v>
       </c>
       <c r="R2">
-        <v>0.05350335367699999</v>
+        <v>0.167855227901</v>
       </c>
       <c r="S2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="T2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H3">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>2.9512</v>
       </c>
       <c r="O3">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P3">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q3">
-        <v>0.05032353448888888</v>
+        <v>0.1021708719111111</v>
       </c>
       <c r="R3">
-        <v>0.4529118104</v>
+        <v>0.9195378472</v>
       </c>
       <c r="S3">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="T3">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H4">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N4">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O4">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P4">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q4">
-        <v>0.07095217643544444</v>
+        <v>0.153874588431</v>
       </c>
       <c r="R4">
-        <v>0.638569587919</v>
+        <v>1.384871295879</v>
       </c>
       <c r="S4">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="T4">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H5">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N5">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q5">
-        <v>0.001191432528555556</v>
+        <v>0.002762338665555556</v>
       </c>
       <c r="R5">
-        <v>0.010722892757</v>
+        <v>0.02486104799</v>
       </c>
       <c r="S5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="T5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
     </row>
   </sheetData>
